--- a/examples/medcalc/answerTable.xlsx
+++ b/examples/medcalc/answerTable.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafael/b4p/medcalc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zur-b\OneDrive\Documents\Programme\Beyond4P_Apps\examples\medcalc\"/>
       <!-- B4P: Insert the path name -->
     </mc:Choice>
   </mc:AlternateContent>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Snoring</t>
   </si>
@@ -45,12 +45,12 @@
     <t>Tiredness</t>
   </si>
   <si>
+    <t>Observed Apnea</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
-    <t>Observed Apnea</t>
-  </si>
-  <si>
     <t>Pressure High</t>
   </si>
   <si>
@@ -78,7 +78,7 @@
     <t>Gender</t>
   </si>
   <si>
-    <t>F</t>
+    <t>M</t>
   </si>
   <si>
     <t>Gender (=M)</t>
@@ -93,7 +93,10 @@
     <t>Risk_Level</t>
   </si>
   <si>
-    <t>Low Risk</t>
+    <t>High Risk</t>
+  </si>
+  <si>
+    <t>dummy</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0000-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <!-- B4P: Example: A1:Z9 -->
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1" showGridLines="1">
@@ -474,15 +477,15 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -490,7 +493,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -498,7 +501,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>454</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -506,7 +509,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -514,7 +517,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>75.5</v>
+        <v>24.4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -522,7 +525,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -530,7 +533,7 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -538,7 +541,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -546,7 +549,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -562,7 +565,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -570,7 +573,7 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -578,7 +581,7 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -587,6 +590,11 @@
       </c>
       <c r="B16" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
